--- a/data/GAMEDATA/TEXT/TUTORIAL_DATA.xlsx
+++ b/data/GAMEDATA/TEXT/TUTORIAL_DATA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D64F11-14C5-4198-ACE0-5CB3D55F4D6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A791963D-2D0E-47BF-8F91-C33890B97B03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,125 +20,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="35">
+  <si>
+    <t>種類</t>
+  </si>
   <si>
     <t>位置 X</t>
-    <rPh sb="0" eb="2">
-      <t>イチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BoxSize X</t>
+  </si>
+  <si>
+    <t>表示時間</t>
+  </si>
+  <si>
+    <t>待機時間</t>
+  </si>
+  <si>
+    <t>消す時間</t>
+  </si>
+  <si>
+    <t>Box表示</t>
+  </si>
+  <si>
+    <t>TextSize</t>
   </si>
   <si>
     <t>テキスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示時間</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>待機時間</t>
-    <rPh sb="0" eb="4">
-      <t>タイキジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消す時間</t>
-    <rPh sb="0" eb="1">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Box表示</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>枠</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>移動</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずは移動してみよう！</t>
+  </si>
+  <si>
+    <t>移動１</t>
+  </si>
+  <si>
+    <t>移動：左スティック</t>
   </si>
   <si>
     <t>視点</t>
-    <rPh sb="0" eb="2">
-      <t>シテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次は視点の移動をしてみよう！</t>
+  </si>
+  <si>
+    <t>視点移動：右スティック</t>
   </si>
   <si>
     <t>発射</t>
-    <rPh sb="0" eb="2">
-      <t>ハッシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次はキューブを撃ってみよう</t>
+  </si>
+  <si>
+    <t>発射：Aボタン</t>
   </si>
   <si>
     <t>設置</t>
-    <rPh sb="0" eb="2">
-      <t>セッチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次はキューブを3つ配置してみよう！</t>
+  </si>
+  <si>
+    <t>壁に向かって撃つ！</t>
+  </si>
+  <si>
+    <t>次はキューブを配置してみよう！</t>
+  </si>
+  <si>
+    <t>配置：Xボタン（１個目のみ）</t>
   </si>
   <si>
     <t>敵</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自由</t>
-    <rPh sb="0" eb="2">
-      <t>ジユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まずは移動してみよう！</t>
-    <rPh sb="3" eb="5">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動１</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WASD or 十字ボタン or 左スティック</t>
-    <rPh sb="8" eb="10">
-      <t>ジュウジ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>種類</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次は敵を倒してみよう</t>
+  </si>
+  <si>
+    <t>キューブの爆発を使って倒そう！</t>
+  </si>
+  <si>
+    <t>出口</t>
+  </si>
+  <si>
+    <t>出口に行くまで制限時間が進むよ！</t>
+  </si>
+  <si>
+    <t>これでチュートリアルは終わりだよ。</t>
+  </si>
+  <si>
+    <t>残り時間自由に移動してみて！</t>
+  </si>
+  <si>
+    <t>出口に行くとタイトルに戻るよ！</t>
   </si>
 </sst>
 </file>
@@ -161,15 +147,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -177,12 +181,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -463,226 +494,958 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>640</v>
+      </c>
+      <c r="D2" s="3">
+        <v>360</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1080</v>
+      </c>
+      <c r="F2" s="3">
+        <v>140</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>640</v>
+      </c>
+      <c r="D3" s="3">
+        <v>330</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1080</v>
+      </c>
+      <c r="F3" s="3">
+        <v>140</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>640</v>
+      </c>
+      <c r="D4" s="3">
+        <v>380</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1080</v>
+      </c>
+      <c r="F4" s="3">
+        <v>140</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>640</v>
+      </c>
+      <c r="D5" s="4">
+        <v>360</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1080</v>
+      </c>
+      <c r="F5" s="4">
+        <v>140</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C6" s="4">
+        <v>640</v>
+      </c>
+      <c r="D6" s="4">
+        <v>330</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1080</v>
+      </c>
+      <c r="F6" s="4">
+        <v>140</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>20</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>640</v>
+      </c>
+      <c r="D7" s="4">
+        <v>380</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1080</v>
+      </c>
+      <c r="F7" s="4">
+        <v>140</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>20</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>640</v>
+      </c>
+      <c r="D8" s="3">
+        <v>360</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1080</v>
+      </c>
+      <c r="F8" s="3">
+        <v>140</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>640</v>
+      </c>
+      <c r="D9" s="3">
+        <v>330</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1080</v>
+      </c>
+      <c r="F9" s="3">
+        <v>140</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>20</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>640</v>
+      </c>
+      <c r="D10" s="3">
+        <v>380</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1080</v>
+      </c>
+      <c r="F10" s="3">
+        <v>140</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>20</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C11" s="4">
+        <v>640</v>
+      </c>
+      <c r="D11" s="4">
+        <v>360</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1080</v>
+      </c>
+      <c r="F11" s="4">
+        <v>140</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>640</v>
+      </c>
+      <c r="D12" s="4">
+        <v>330</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1080</v>
+      </c>
+      <c r="F12" s="4">
+        <v>140</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>20</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>640</v>
+      </c>
+      <c r="D13" s="4">
+        <v>380</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1080</v>
+      </c>
+      <c r="F13" s="4">
+        <v>140</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>20</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="C14" s="3">
+        <v>640</v>
+      </c>
+      <c r="D14" s="3">
+        <v>360</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1080</v>
+      </c>
+      <c r="F14" s="3">
+        <v>140</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>640</v>
+      </c>
+      <c r="D15" s="3">
+        <v>330</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1080</v>
+      </c>
+      <c r="F15" s="3">
+        <v>140</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>20</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>640</v>
+      </c>
+      <c r="D16" s="3">
+        <v>380</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1080</v>
+      </c>
+      <c r="F16" s="3">
+        <v>140</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>20</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4">
+        <v>640</v>
+      </c>
+      <c r="D17" s="4">
+        <v>360</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1080</v>
+      </c>
+      <c r="F17" s="4">
+        <v>140</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>640</v>
+      </c>
+      <c r="D18" s="4">
+        <v>330</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1080</v>
+      </c>
+      <c r="F18" s="4">
+        <v>140</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>20</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>640</v>
+      </c>
+      <c r="D19" s="4">
+        <v>380</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1080</v>
+      </c>
+      <c r="F19" s="4">
+        <v>140</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>20</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="C20" s="3">
+        <v>640</v>
+      </c>
+      <c r="D20" s="3">
+        <v>360</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1080</v>
+      </c>
+      <c r="F20" s="3">
+        <v>140</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3">
+        <v>640</v>
+      </c>
+      <c r="D21" s="3">
+        <v>330</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1080</v>
+      </c>
+      <c r="F21" s="3">
+        <v>140</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>20</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>640</v>
+      </c>
+      <c r="D22" s="3">
+        <v>380</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1080</v>
+      </c>
+      <c r="F22" s="3">
+        <v>140</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>20</v>
+      </c>
+      <c r="I22" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>20</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>640</v>
-      </c>
-      <c r="D2">
-        <v>600</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
+      <c r="C23" s="4">
+        <v>640</v>
+      </c>
+      <c r="D23" s="4">
+        <v>360</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1080</v>
+      </c>
+      <c r="F23" s="4">
+        <v>140</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J23" s="4">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>640</v>
-      </c>
-      <c r="D3">
-        <v>600</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>640</v>
-      </c>
-      <c r="D4">
-        <v>600</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>640</v>
-      </c>
-      <c r="D5">
-        <v>600</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>640</v>
-      </c>
-      <c r="D6">
-        <v>600</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>640</v>
-      </c>
-      <c r="D7">
-        <v>600</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>640</v>
-      </c>
-      <c r="D8">
-        <v>600</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="4">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4">
+        <v>640</v>
+      </c>
+      <c r="D24" s="4">
+        <v>330</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1080</v>
+      </c>
+      <c r="F24" s="4">
+        <v>140</v>
+      </c>
+      <c r="G24" s="4">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4">
+        <v>30</v>
+      </c>
+      <c r="I24" s="4">
+        <v>30</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>20</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4">
+        <v>640</v>
+      </c>
+      <c r="D25" s="4">
+        <v>330</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1080</v>
+      </c>
+      <c r="F25" s="4">
+        <v>140</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4">
+        <v>30</v>
+      </c>
+      <c r="I25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>20</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
